--- a/Excel Sheets/phys346_t12.xlsx
+++ b/Excel Sheets/phys346_t12.xlsx
@@ -5,16 +5,19 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ricky\OneDrive\Desktop\Spring 2024\Assignments\Physics\Adlab Lab 5 - RLE\Excel Sheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4d0add38f13e4a50/Desktop/Spring 2024/Assignments/Physics/Adlab Lab 5 - RLE/AdLab_Lab_5/Excel Sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA4E3D7A-654B-4104-9CF4-9A1E81464012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="52" documentId="13_ncr:1_{DA4E3D7A-654B-4104-9CF4-9A1E81464012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8DFD19F0-C0BD-4F66-A206-E970F149C5A1}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13866" xr2:uid="{B172C8C6-7D3F-4516-B188-A82CFDF87B30}"/>
+    <workbookView xWindow="2100" yWindow="3033" windowWidth="19200" windowHeight="9980" xr2:uid="{B172C8C6-7D3F-4516-B188-A82CFDF87B30}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="bt">Sheet1!$F$8</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -416,15 +419,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D36C4B30-E846-4E8E-9968-FF3CDB4A6A11}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -433,6 +436,204 @@
       </c>
       <c r="C1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.22</v>
+      </c>
+      <c r="C2">
+        <f>E2-bt</f>
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>25.143999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A3">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="B3">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="C3">
+        <f>E3-bt</f>
+        <v>3.3000000000001251E-2</v>
+      </c>
+      <c r="E3">
+        <v>25.177</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A4">
+        <v>0.27875</v>
+      </c>
+      <c r="B4">
+        <v>0.44874999999999998</v>
+      </c>
+      <c r="C4">
+        <f>E4-bt</f>
+        <v>6.0500000000001108E-2</v>
+      </c>
+      <c r="E4">
+        <v>25.204499999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A5">
+        <v>0.36249999999999999</v>
+      </c>
+      <c r="B5">
+        <v>0.47249999999999998</v>
+      </c>
+      <c r="C5">
+        <f>E5-bt</f>
+        <v>8.8000000000000966E-2</v>
+      </c>
+      <c r="E5">
+        <v>25.231999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A6">
+        <v>0.58750000000000002</v>
+      </c>
+      <c r="B6">
+        <v>0.54949999999999999</v>
+      </c>
+      <c r="C6">
+        <f>E6-bt</f>
+        <v>9.9000000000000199E-2</v>
+      </c>
+      <c r="E6">
+        <v>25.242999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A7">
+        <v>0.78900000000000003</v>
+      </c>
+      <c r="B7">
+        <v>0.61950000000000005</v>
+      </c>
+      <c r="C7">
+        <f>E7-bt</f>
+        <v>0.15500000000000114</v>
+      </c>
+      <c r="E7">
+        <v>25.298999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A8">
+        <v>0.94950000000000001</v>
+      </c>
+      <c r="B8">
+        <v>0.63749999999999996</v>
+      </c>
+      <c r="C8">
+        <f>E8-bt</f>
+        <v>0.16600000000000037</v>
+      </c>
+      <c r="E8">
+        <v>25.31</v>
+      </c>
+      <c r="F8">
+        <v>25.143999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A9">
+        <v>1.085</v>
+      </c>
+      <c r="B9">
+        <v>0.66500000000000004</v>
+      </c>
+      <c r="C9">
+        <f>E9-bt</f>
+        <v>0.22100000000000009</v>
+      </c>
+      <c r="E9">
+        <v>25.364999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A10">
+        <v>1.25</v>
+      </c>
+      <c r="B10">
+        <v>0.68</v>
+      </c>
+      <c r="C10">
+        <f>E10-bt</f>
+        <v>0.23300000000000054</v>
+      </c>
+      <c r="E10">
+        <v>25.376999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A11">
+        <v>1.425</v>
+      </c>
+      <c r="B11">
+        <v>0.69</v>
+      </c>
+      <c r="C11">
+        <f>E11-bt</f>
+        <v>0.28950000000000031</v>
+      </c>
+      <c r="E11">
+        <v>25.433499999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A12">
+        <v>1.6</v>
+      </c>
+      <c r="B12">
+        <v>0.68</v>
+      </c>
+      <c r="C12">
+        <f>E12-bt</f>
+        <v>0.28500000000000014</v>
+      </c>
+      <c r="E12">
+        <v>25.428999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A13">
+        <v>1.7652000000000001</v>
+      </c>
+      <c r="B13">
+        <v>0.66449999999999998</v>
+      </c>
+      <c r="C13">
+        <f>E13-bt</f>
+        <v>0.35100000000000264</v>
+      </c>
+      <c r="E13">
+        <v>25.495000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A14">
+        <v>1.9125000000000001</v>
+      </c>
+      <c r="B14">
+        <v>0.64349999999999996</v>
+      </c>
+      <c r="C14">
+        <f>E14-bt</f>
+        <v>0.37000000000000099</v>
+      </c>
+      <c r="E14">
+        <v>25.513999999999999</v>
       </c>
     </row>
   </sheetData>
